--- a/ocms/src/test/resources/TestData/VIPListManagementData.xlsx
+++ b/ocms/src/test/resources/TestData/VIPListManagementData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13635" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:N20"/>
+  <oleSize ref="A1:I7"/>
 </workbook>
 </file>
 
@@ -117,7 +117,7 @@
       ,[OtherData] as 'Other Data'
       ,[LastChangedBy] as 'Last Changed By'
       ,Substring([LastChangedOn],11,19) as 'Last changed On'
-  FROM [Product_OCM].[dbo].[GBL_Custom_ContactList]</t>
+  FROM [GBL_Custom_ContactList]</t>
   </si>
 </sst>
 </file>

--- a/ocms/src/test/resources/TestData/VIPListManagementData.xlsx
+++ b/ocms/src/test/resources/TestData/VIPListManagementData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -13,12 +18,11 @@
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:I7"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
   <si>
     <t>Caller ID</t>
   </si>
@@ -118,6 +122,12 @@
       ,[LastChangedBy] as 'Last Changed By'
       ,Substring([LastChangedOn],11,19) as 'Last changed On'
   FROM [GBL_Custom_ContactList]</t>
+  </si>
+  <si>
+    <t>amy</t>
+  </si>
+  <si>
+    <t>gmail.com</t>
   </si>
 </sst>
 </file>
@@ -180,6 +190,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -227,7 +240,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -262,7 +275,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +503,7 @@
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -558,6 +571,16 @@
       </c>
       <c r="K2" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -582,7 +605,7 @@
     <col min="13" max="13" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -623,7 +646,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -682,7 +705,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -720,7 +743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -770,7 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/ocms/src/test/resources/TestData/VIPListManagementData.xlsx
+++ b/ocms/src/test/resources/TestData/VIPListManagementData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14835" windowHeight="6495"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13760" windowHeight="2830"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
   <si>
     <t>Caller ID</t>
   </si>
@@ -128,6 +128,24 @@
   </si>
   <si>
     <t>gmail.com</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>santu@gmail.com</t>
+  </si>
+  <si>
+    <t>ReTest</t>
+  </si>
+  <si>
+    <t>santu18</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>England</t>
   </si>
 </sst>
 </file>
@@ -172,13 +190,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -484,108 +506,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" customWidth="1"/>
+    <col min="8" max="8" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" customWidth="1"/>
+    <col min="11" max="11" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -599,13 +657,15 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
+    <col min="12" max="12" width="16.7265625" customWidth="1"/>
+    <col min="13" max="13" width="14.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -646,7 +706,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -703,9 +763,9 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -743,7 +803,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -797,17 +857,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="58.5703125" customWidth="1"/>
+    <col min="1" max="1" width="58.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="210" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="203" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>

--- a/ocms/src/test/resources/TestData/VIPListManagementData.xlsx
+++ b/ocms/src/test/resources/TestData/VIPListManagementData.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13760" windowHeight="2830"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
     <sheet name="Edit" sheetId="2" r:id="rId2"/>
     <sheet name="Delete" sheetId="3" r:id="rId3"/>
     <sheet name="Queries" sheetId="4" r:id="rId4"/>
+    <sheet name="Invalid" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="40">
   <si>
     <t>Caller ID</t>
   </si>
@@ -146,6 +147,15 @@
   </si>
   <si>
     <t>England</t>
+  </si>
+  <si>
+    <t>aravinda@gmail.com</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Aravind94</t>
   </si>
 </sst>
 </file>
@@ -508,24 +518,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.7265625" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
-    <col min="4" max="4" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" customWidth="1"/>
-    <col min="6" max="6" width="14.453125" customWidth="1"/>
-    <col min="8" max="8" width="12.1796875" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" customWidth="1"/>
-    <col min="11" max="11" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -560,7 +570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
@@ -595,17 +605,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>31</v>
       </c>
@@ -657,15 +667,15 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" customWidth="1"/>
-    <col min="12" max="12" width="16.7265625" customWidth="1"/>
-    <col min="13" max="13" width="14.26953125" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -706,7 +716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -763,9 +773,9 @@
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -803,7 +813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -854,20 +864,20 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="58.54296875" customWidth="1"/>
+    <col min="1" max="1" width="58.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="203" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="203.1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -875,4 +885,99 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>1994</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ocms/src/test/resources/TestData/VIPListManagementData.xlsx
+++ b/ocms/src/test/resources/TestData/VIPListManagementData.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14835" windowHeight="6060" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3795"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -19,6 +14,7 @@
     <sheet name="Invalid" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:O10"/>
 </workbook>
 </file>
 
@@ -125,9 +121,6 @@
   FROM [GBL_Custom_ContactList]</t>
   </si>
   <si>
-    <t>amy</t>
-  </si>
-  <si>
     <t>gmail.com</t>
   </si>
   <si>
@@ -156,6 +149,9 @@
   </si>
   <si>
     <t>Aravind94</t>
+  </si>
+  <si>
+    <t>a</t>
   </si>
 </sst>
 </file>
@@ -518,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,35 +603,35 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>33</v>
-      </c>
-      <c r="D5" t="s">
-        <v>34</v>
       </c>
       <c r="E5" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
         <v>35</v>
-      </c>
-      <c r="G5" t="s">
-        <v>36</v>
       </c>
       <c r="H5" t="s">
         <v>17</v>
@@ -891,7 +887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -941,16 +937,16 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
         <v>38</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" t="s">
-        <v>39</v>
       </c>
       <c r="E2" t="s">
         <v>14</v>

--- a/ocms/src/test/resources/TestData/VIPListManagementData.xlsx
+++ b/ocms/src/test/resources/TestData/VIPListManagementData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\git\scripts\ocms\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3744B15-02B9-4753-9257-B7B1478D21DA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="3795"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Create" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,6 @@
     <sheet name="Invalid" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:O10"/>
 </workbook>
 </file>
 
@@ -157,7 +162,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -301,6 +306,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -336,6 +358,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -511,27 +550,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -566,7 +605,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
         <v>20</v>
       </c>
@@ -601,17 +640,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
@@ -648,30 +687,30 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B5" r:id="rId2"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -712,7 +751,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -755,23 +794,23 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -809,7 +848,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>20</v>
       </c>
@@ -849,31 +888,31 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.5703125" customWidth="1"/>
+    <col min="1" max="1" width="58.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="203.1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>28</v>
       </c>
@@ -884,23 +923,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -935,7 +974,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -972,7 +1011,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
